--- a/Experiment_algoritmen1000.xlsx
+++ b/Experiment_algoritmen1000.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\judit\Documents\Algoritmen_Heuristieken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\judit\Documents\Algoritmen_Heuristieken\JuLiDy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35242803-E688-4100-A829-8E5EED50508E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EB1055-D5E7-4B8D-A15B-27FDC948ECC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9590" yWindow="-100" windowWidth="7500" windowHeight="6000" xr2:uid="{779329A0-DD11-4B3E-B5F6-B54F14BB0ABF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{779329A0-DD11-4B3E-B5F6-B54F14BB0ABF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -798,7 +798,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$35:$A$38</c15:sqref>
@@ -836,7 +836,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$51:$B$57</c15:sqref>
@@ -871,7 +871,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$35:$F$41</c15:sqref>
@@ -894,7 +894,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-B693-4ABB-8F42-B77D012144DD}"/>
                   </c:ext>
@@ -907,7 +907,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$43:$A$46</c15:sqref>
@@ -945,7 +945,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$51:$B$57</c15:sqref>
@@ -980,7 +980,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$43:$F$49</c15:sqref>
@@ -994,7 +994,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-B693-4ABB-8F42-B77D012144DD}"/>
                   </c:ext>
@@ -1007,7 +1007,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$51:$A$54</c15:sqref>
@@ -1047,7 +1047,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$51:$B$57</c15:sqref>
@@ -1082,7 +1082,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$51:$F$57</c15:sqref>
@@ -1096,7 +1096,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-B693-4ABB-8F42-B77D012144DD}"/>
                   </c:ext>
@@ -1976,7 +1976,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$11:$A$13</c15:sqref>
@@ -2011,7 +2011,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$51:$B$57</c15:sqref>
@@ -2046,7 +2046,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$11:$F$17</c15:sqref>
@@ -2081,7 +2081,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-9F22-42D9-842D-68FC9EA731EA}"/>
                   </c:ext>
@@ -2094,7 +2094,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$19:$A$22</c15:sqref>
@@ -2132,7 +2132,7 @@
                 </c:marker>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$51:$B$57</c15:sqref>
@@ -2167,7 +2167,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$19:$F$25</c15:sqref>
@@ -2202,7 +2202,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="1"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-9F22-42D9-842D-68FC9EA731EA}"/>
                   </c:ext>
@@ -2321,6 +2321,7 @@
       <c:valAx>
         <c:axId val="1540861615"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
           <c:min val="10"/>
         </c:scaling>
